--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175AF07B-C734-4D33-BA92-515A55360F72}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -60,21 +61,6 @@
     <t>2: Code</t>
   </si>
   <si>
-    <t>Font end</t>
-  </si>
-  <si>
-    <t>Back end</t>
-  </si>
-  <si>
-    <t>3: Kết hợp</t>
-  </si>
-  <si>
-    <t>Kết hợp web và thuật toán</t>
-  </si>
-  <si>
-    <t>4: Testing</t>
-  </si>
-  <si>
     <t>Kiểm tra kết quả thuật toán</t>
   </si>
   <si>
@@ -87,9 +73,6 @@
     <t>Ngày kết thúc dự kiến</t>
   </si>
   <si>
-    <t>Code app:</t>
-  </si>
-  <si>
     <t>Tìm hiểu thuật toán Optical Character Recognition(OCR)</t>
   </si>
   <si>
@@ -99,40 +82,43 @@
     <t>Đoàn Huỳnh Thiện, Ngô Đức Tín, Nguyễn Di Thông</t>
   </si>
   <si>
-    <t>15-10-2018</t>
-  </si>
-  <si>
-    <t>25-10-2018</t>
-  </si>
-  <si>
     <t>Đoàn Huỳnh Thiện</t>
   </si>
   <si>
     <t>Ngô Đức Tín</t>
   </si>
   <si>
-    <t>20-10-2018</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu dự kiến</t>
   </si>
   <si>
-    <t>30-10-2018</t>
-  </si>
-  <si>
-    <t>23-11-2018</t>
-  </si>
-  <si>
-    <t>28-10-2018</t>
-  </si>
-  <si>
-    <t>Code thuật toán OCR</t>
+    <t>Preprocessing</t>
+  </si>
+  <si>
+    <t>Text Segmentation</t>
+  </si>
+  <si>
+    <t>Text Recognition with kNN</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
+  </si>
+  <si>
+    <t>25/10/2018</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>26/11/2018</t>
+  </si>
+  <si>
+    <t>3: Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -237,11 +223,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,18 +308,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -279,6 +326,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -290,6 +340,81 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,45 +695,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="9"/>
-    <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="16" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,15 +744,15 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,78 +767,78 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>43353</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="0.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="37"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -721,9 +846,9 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:11" ht="16.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="37"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -733,9 +858,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:11" ht="16.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="37"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -745,9 +870,9 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="0.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:11" ht="16.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="38"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -761,26 +886,24 @@
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
+      <c r="F11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -790,34 +913,37 @@
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="21">
+        <v>43384</v>
+      </c>
+      <c r="G13" s="22"/>
       <c r="H13" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -827,104 +953,104 @@
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="35"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
+      <c r="B16" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3">
-        <v>43111</v>
-      </c>
-      <c r="E16" s="3">
-        <v>43201</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="9">
+        <v>43231</v>
+      </c>
+      <c r="E16" s="9">
+        <v>43323</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3">
-        <v>43231</v>
-      </c>
-      <c r="E17" s="3">
-        <v>43323</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="18">
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B11:B15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thien Doan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thien Doan\Desktop\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AA6576-6D0C-4860-9C6B-E10E4EEBB6A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD57983-E57A-4E52-9AC8-5BB6E845FE85}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{536DC949-30F2-4870-AE5A-83D43BFDA916}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>Tìm hiểu về Optical Character Recognition</t>
   </si>
@@ -73,10 +73,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +437,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,6 +511,7 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
